--- a/medicine/Handicap/Un_p'tit_truc_en_plus/Un_p'tit_truc_en_plus.xlsx
+++ b/medicine/Handicap/Un_p'tit_truc_en_plus/Un_p'tit_truc_en_plus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_p%27tit_truc_en_plus</t>
+          <t>Un_p'tit_truc_en_plus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un p'tit truc en plus est un film français réalisé par Artus et sorti en 2024.
 Il s'agit du premier long métrage réalisé et écrit par Artus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_p%27tit_truc_en_plus</t>
+          <t>Un_p'tit_truc_en_plus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulo vit de petits larcins avec son père, surnommé « La Fraise ». Après avoir braqué une petite bijouterie dans le centre de Valence (Drôme), ils se rendent compte que leur voiture a été embarquée par la fourrière, l'ayant garée illégalement sur une place pour personnes handicapées, à côté du palais de justice et d'un établissement s'occupant de jeunes adultes ayant un handicap mental qui se prépare justement à emmener ses pensionnaires en vacances dans un gîte dans le Vercors. 
 Alice, éducatrice et responsable du centre, attend un retardataire nommé Sylvain. Voyant arriver par hasard Paulo et La Fraise, elle pense que Paulo est Sylvain et prend La Fraise pour son éducateur. La Fraise y voit l’opportunité de se cacher de la police. Il parvient également à l'accompagner dans le bus, et persuade Alice que sa présence est indispensable à « Sylvain ». La Fraise se fera surnommer fortuitement « Orpi » durant le trajet.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_p%27tit_truc_en_plus</t>
+          <t>Un_p'tit_truc_en_plus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Un_p%27tit_truc_en_plus</t>
+          <t>Un_p'tit_truc_en_plus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Artus : Paulo / Sylvain
@@ -630,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Un_p%27tit_truc_en_plus</t>
+          <t>Un_p'tit_truc_en_plus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,11 +668,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement et attribution des rôles
-Un p'tit truc en plus est le premier long métrage réalisé par Artus[1],[2]. Le 13 juillet 2023, Le Film français dévoile les premières informations sur ce film alors présenté sous le titre Un petit truc en plus : les acteurs engagés dans les rôles principaux sont Artus, Clovis Cornillac, Alice Belaïdi, Marc Riso et Céline Groussard ; Artus en est le réalisateur ainsi que le coscénariste en compagnie de Clément Marchand et Milan Mauger, et Cine Nomine est la société de production du film[1]. En août, le titre est légèrement modifié : le « e » de « petit » est remplacé par une apostrophe, ce qui donne Un p'tit truc en plus[3].
+          <t>Développement et attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un p'tit truc en plus est le premier long métrage réalisé par Artus,. Le 13 juillet 2023, Le Film français dévoile les premières informations sur ce film alors présenté sous le titre Un petit truc en plus : les acteurs engagés dans les rôles principaux sont Artus, Clovis Cornillac, Alice Belaïdi, Marc Riso et Céline Groussard ; Artus en est le réalisateur ainsi que le coscénariste en compagnie de Clément Marchand et Milan Mauger, et Cine Nomine est la société de production du film. En août, le titre est légèrement modifié : le « e » de « petit » est remplacé par une apostrophe, ce qui donne Un p'tit truc en plus.
 Pour les droits visuels et les droits musicaux concernant Dalida (dont un des vacanciers est fan) Orlando le frère de Dalida qui aurait adoré le film, aurait offert les droits[réf. nécessaire].
-Tournage
-Le tournage débute le 17 juillet 2023[1] dans une ferme qui constitue le décor du centre de la colonie de vacances, sur la route de Gontier à Malleval-en-Vercors, dans la région Auvergne-Rhône-Alpes[4]. Il se déroule également dans les villes de Chatte et de La Sône, en Isère[1]. Le 15 août, l'équipe s'installe à Valence, dans la Drôme, plus précisément pour filmer la place du Palais et la cour de l'école Louis-Pergaud[3], puis se déplace dans le Vercors, dans la commune d'Izeron[5]. Les prises de vues s'achèvent le 2 septembre suivant à Saint-Nazaire-en-Royans[6],[7],[8].
 </t>
         </is>
       </c>
@@ -665,7 +686,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Un_p%27tit_truc_en_plus</t>
+          <t>Un_p'tit_truc_en_plus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,20 +701,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sortie
-Début décembre 2023, la société Pan Distribution annonce une date de sortie du film Un p'tit truc en plus, prévue alors le 1er décembre 2024[9].
-Le film fait son avant-première, le 10 avril 2024, aux Rencontres du cinéma de Gérardmer, avec la présence du réalisateur[10]. Le film sort finalement en salles plus tôt qu'annoncé : le 1er mai 2024[11].
-Accueil critique
-En France, le site Allociné propose une moyenne de 3,1⁄5, d'après l'interprétation de 16 critiques de presse[12].
-Box-office
-Avec 279 635 entrées le premier jour de sa sortie, le 1er mai, et 500 000 entrées en trois jours, le film réalise le deuxième meilleur démarrage de l'histoire du cinéma français, derrière Bienvenue chez les Ch'tis[13],[14]. Le 10 mai, le film dépasse 1 600 000 entrées[15].
-Le 13 mai, BFM TV annonce que le film a dépassé le cap des deux millions d'entrées en deux semaines d’exploitation[16], confirmé par la suite par Allociné le 16 mai [17]. 
-Le 20 mai, BFM TV annonce que le cap des trois millions d'entrées est à son tour franchi[18]. Celui des quatre millions est atteint le 24 mai[19]. Le Monde annonce que le cap des 4,5 millions d'entrées a été franchi le 29 mai[20]. Le 31 mai, le Figaro Culture annonce les cinq millions d'entrées franchies[21],[22].  
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 17 juillet 2023 dans une ferme qui constitue le décor du centre de la colonie de vacances, sur la route de Gontier à Malleval-en-Vercors, dans la région Auvergne-Rhône-Alpes. Il se déroule également dans les villes de Chatte et de La Sône, en Isère. Le 15 août, l'équipe s'installe à Valence, dans la Drôme, plus précisément pour filmer la place du Palais et la cour de l'école Louis-Pergaud, puis se déplace dans le Vercors, dans la commune d'Izeron. Les prises de vues s'achèvent le 2 septembre suivant à Saint-Nazaire-en-Royans.
 </t>
         </is>
       </c>
@@ -704,7 +723,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Un_p%27tit_truc_en_plus</t>
+          <t>Un_p'tit_truc_en_plus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,12 +738,128 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Début décembre 2023, la société Pan Distribution annonce une date de sortie du film Un p'tit truc en plus, prévue alors le 1er décembre 2024.
+Le film fait son avant-première, le 10 avril 2024, aux Rencontres du cinéma de Gérardmer, avec la présence du réalisateur. Le film sort finalement en salles plus tôt qu'annoncé : le 1er mai 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Un_p'tit_truc_en_plus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_p%27tit_truc_en_plus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné propose une moyenne de 3,1⁄5, d'après l'interprétation de 16 critiques de presse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Un_p'tit_truc_en_plus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_p%27tit_truc_en_plus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec 279 635 entrées le premier jour de sa sortie, le 1er mai, et 500 000 entrées en trois jours, le film réalise le deuxième meilleur démarrage de l'histoire du cinéma français, derrière Bienvenue chez les Ch'tis,. Le 10 mai, le film dépasse 1 600 000 entrées.
+Le 13 mai, BFM TV annonce que le film a dépassé le cap des deux millions d'entrées en deux semaines d’exploitation, confirmé par la suite par Allociné le 16 mai . 
+Le 20 mai, BFM TV annonce que le cap des trois millions d'entrées est à son tour franchi. Celui des quatre millions est atteint le 24 mai. Le Monde annonce que le cap des 4,5 millions d'entrées a été franchi le 29 mai. Le 31 mai, le Figaro Culture annonce les cinq millions d'entrées franchies,.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Un_p'tit_truc_en_plus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_p%27tit_truc_en_plus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Festival de Cannes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 11 mai 2024, lors d'une interview de France Inter, Artus annonce qu'aucune marque de luxe n'a souhaité habiller les acteurs du film pour la montée des marches du Festival de Cannes. Selon le réalisateur, les marques ont déjà prêté tous leurs costumes, et ajoute « que c’est toujours plus élégant pour une marque d’habiller Brad Pitt que d’habiller […] Artus et encore plus des acteurs en situation de handicap »[23]. Le 13 mai, le groupe LVMH annonce vouloir faire des essais d'habillages avec les acteurs. Le lendemain, Kering déclare également habiller le casting[24]. Artus a aussi accepté la proposition de l'entreprise « Ouais et alors », portée sur l'inclusivité. Celle-ci leur a fourni des tee-shirts qui seront portés sur la Croisette et lors d'interview[25].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 mai 2024, lors d'une interview de France Inter, Artus annonce qu'aucune marque de luxe n'a souhaité habiller les acteurs du film pour la montée des marches du Festival de Cannes. Selon le réalisateur, les marques ont déjà prêté tous leurs costumes, et ajoute « que c’est toujours plus élégant pour une marque d’habiller Brad Pitt que d’habiller […] Artus et encore plus des acteurs en situation de handicap ». Le 13 mai, le groupe LVMH annonce vouloir faire des essais d'habillages avec les acteurs. Le lendemain, Kering déclare également habiller le casting. Artus a aussi accepté la proposition de l'entreprise « Ouais et alors », portée sur l'inclusivité. Celle-ci leur a fourni des tee-shirts qui seront portés sur la Croisette et lors d'interview.
 </t>
         </is>
       </c>
